--- a/data/c3/cfus_ct.xlsx
+++ b/data/c3/cfus_ct.xlsx
@@ -216,8 +216,8 @@
   </sheetPr>
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -319,7 +319,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>25.4</v>
+        <v>25.5</v>
       </c>
       <c r="C7" s="5" t="n">
         <v>-4</v>
@@ -334,7 +334,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="5" t="n">
-        <v>25.4</v>
+        <v>25.5</v>
       </c>
       <c r="C8" s="5" t="n">
         <v>-4</v>
@@ -349,7 +349,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="5" t="n">
-        <v>25.4</v>
+        <v>25.5</v>
       </c>
       <c r="C9" s="5" t="n">
         <v>-4</v>
@@ -364,7 +364,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="5" t="n">
-        <v>25.4</v>
+        <v>25.5</v>
       </c>
       <c r="C10" s="5" t="n">
         <v>-5</v>
